--- a/upload/laporanBulananInfrastruktur.xlsx
+++ b/upload/laporanBulananInfrastruktur.xlsx
@@ -15,9 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
-  <si>
-    <t>Tanggal SPK :  06/01/2023  s/d  06/10/2023</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
+  <si>
+    <t>Tanggal SPK :  06/01/2023  s/d  06/13/2023</t>
   </si>
   <si>
     <t>No</t>
@@ -53,34 +53,94 @@
     <t>Tgl. SAH</t>
   </si>
   <si>
+    <t>Kriswanto</t>
+  </si>
+  <si>
+    <t>Uraian : laptop lemot banget</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pekerjaan : </t>
+  </si>
+  <si>
+    <t>012694</t>
+  </si>
+  <si>
+    <t>ZM23000066</t>
+  </si>
+  <si>
+    <t>FC</t>
+  </si>
+  <si>
+    <t>A002</t>
+  </si>
+  <si>
+    <t>12-JUN-23</t>
+  </si>
+  <si>
+    <t>ZN23000068</t>
+  </si>
+  <si>
+    <t>Budi</t>
+  </si>
+  <si>
+    <t>Uraian : komputer tidak mau menyala</t>
+  </si>
+  <si>
+    <t>012646</t>
+  </si>
+  <si>
+    <t>ZM23000068</t>
+  </si>
+  <si>
+    <t>ZN23000070</t>
+  </si>
+  <si>
+    <t>Uraian : komputer blank</t>
+  </si>
+  <si>
+    <t>ZM23000069</t>
+  </si>
+  <si>
+    <t>KC</t>
+  </si>
+  <si>
+    <t>A001</t>
+  </si>
+  <si>
+    <t>13-JUN-23</t>
+  </si>
+  <si>
+    <t>ZN23000071</t>
+  </si>
+  <si>
     <t>Chandra</t>
   </si>
   <si>
-    <t>Uraian : laptop hang gabisa nyala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pekerjaan : </t>
+    <t>Uraian : Laptop gabisa main valorant</t>
   </si>
   <si>
     <t>015393</t>
   </si>
   <si>
-    <t>ZM23000061</t>
-  </si>
-  <si>
-    <t>FC</t>
-  </si>
-  <si>
-    <t>A001</t>
-  </si>
-  <si>
-    <t>09-JUN-23</t>
-  </si>
-  <si>
-    <t>ZN23000065</t>
+    <t>ZM23000062</t>
   </si>
   <si>
     <t>10-JUN-23</t>
+  </si>
+  <si>
+    <t>ZN23000066</t>
+  </si>
+  <si>
+    <t>11-JUN-23</t>
+  </si>
+  <si>
+    <t>Uraian : laptop tidak mau mati</t>
+  </si>
+  <si>
+    <t>ZM23000067</t>
+  </si>
+  <si>
+    <t>ZN23000069</t>
   </si>
 </sst>
 </file>
@@ -420,7 +480,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,7 +554,7 @@
         <v>20</v>
       </c>
       <c r="I4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J4"/>
       <c r="K4"/>
@@ -506,6 +566,182 @@
     </row>
     <row r="6" spans="1:11">
       <c r="B6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10"/>
+      <c r="K10"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J13" t="s">
+        <v>38</v>
+      </c>
+      <c r="K13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="B18" t="s">
         <v>14</v>
       </c>
     </row>

--- a/upload/laporanBulananInfrastruktur.xlsx
+++ b/upload/laporanBulananInfrastruktur.xlsx
@@ -15,9 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
-  <si>
-    <t>Tanggal SPK :  06/01/2023  s/d  06/13/2023</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
+  <si>
+    <t>Tanggal SPK :  01/16/2023  s/d  06/16/2023</t>
   </si>
   <si>
     <t>No</t>
@@ -53,94 +53,52 @@
     <t>Tgl. SAH</t>
   </si>
   <si>
-    <t>Kriswanto</t>
-  </si>
-  <si>
-    <t>Uraian : laptop lemot banget</t>
+    <t>Chandra</t>
+  </si>
+  <si>
+    <t>Uraian : Laptop gabisa main valorant</t>
   </si>
   <si>
     <t xml:space="preserve">Pekerjaan : </t>
   </si>
   <si>
-    <t>012694</t>
-  </si>
-  <si>
-    <t>ZM23000066</t>
+    <t>015393</t>
+  </si>
+  <si>
+    <t>ZM23000062</t>
   </si>
   <si>
     <t>FC</t>
   </si>
   <si>
+    <t>A001</t>
+  </si>
+  <si>
+    <t>10-JUN-23</t>
+  </si>
+  <si>
+    <t>ZN23000066</t>
+  </si>
+  <si>
+    <t>11-JUN-23</t>
+  </si>
+  <si>
+    <t>Uraian : komputer error</t>
+  </si>
+  <si>
+    <t>ZM23000070</t>
+  </si>
+  <si>
+    <t>KC</t>
+  </si>
+  <si>
     <t>A002</t>
   </si>
   <si>
-    <t>12-JUN-23</t>
-  </si>
-  <si>
-    <t>ZN23000068</t>
-  </si>
-  <si>
-    <t>Budi</t>
-  </si>
-  <si>
-    <t>Uraian : komputer tidak mau menyala</t>
-  </si>
-  <si>
-    <t>012646</t>
-  </si>
-  <si>
-    <t>ZM23000068</t>
-  </si>
-  <si>
-    <t>ZN23000070</t>
-  </si>
-  <si>
-    <t>Uraian : komputer blank</t>
-  </si>
-  <si>
-    <t>ZM23000069</t>
-  </si>
-  <si>
-    <t>KC</t>
-  </si>
-  <si>
-    <t>A001</t>
-  </si>
-  <si>
     <t>13-JUN-23</t>
   </si>
   <si>
-    <t>ZN23000071</t>
-  </si>
-  <si>
-    <t>Chandra</t>
-  </si>
-  <si>
-    <t>Uraian : Laptop gabisa main valorant</t>
-  </si>
-  <si>
-    <t>015393</t>
-  </si>
-  <si>
-    <t>ZM23000062</t>
-  </si>
-  <si>
-    <t>10-JUN-23</t>
-  </si>
-  <si>
-    <t>ZN23000066</t>
-  </si>
-  <si>
-    <t>11-JUN-23</t>
-  </si>
-  <si>
-    <t>Uraian : laptop tidak mau mati</t>
-  </si>
-  <si>
-    <t>ZM23000067</t>
-  </si>
-  <si>
-    <t>ZN23000069</t>
+    <t>ZN23000072</t>
   </si>
 </sst>
 </file>
@@ -480,7 +438,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,8 +514,12 @@
       <c r="I4" t="s">
         <v>19</v>
       </c>
-      <c r="J4"/>
-      <c r="K4"/>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="B5" t="s">
@@ -574,35 +536,31 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>24</v>
       </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7" t="s">
-        <v>19</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="J7"/>
+      <c r="K7"/>
     </row>
     <row r="8" spans="1:11">
       <c r="B8" t="s">
@@ -611,137 +569,6 @@
     </row>
     <row r="9" spans="1:11">
       <c r="B9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10">
-        <v>3</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I10" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10"/>
-      <c r="K10"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" t="s">
-        <v>36</v>
-      </c>
-      <c r="H13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I13" t="s">
-        <v>36</v>
-      </c>
-      <c r="J13" t="s">
-        <v>38</v>
-      </c>
-      <c r="K13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="B14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16">
-        <v>5</v>
-      </c>
-      <c r="B16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H16" t="s">
-        <v>41</v>
-      </c>
-      <c r="I16" t="s">
-        <v>19</v>
-      </c>
-      <c r="J16" t="s">
-        <v>19</v>
-      </c>
-      <c r="K16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="B17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="B18" t="s">
         <v>14</v>
       </c>
     </row>
